--- a/10000548.xlsx
+++ b/10000548.xlsx
@@ -431,253 +431,353 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC2"/>
+  <dimension ref="A1:BR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
+    <col width="17" customWidth="1" min="18" max="18"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="20" max="20"/>
+    <col width="17" customWidth="1" min="21" max="21"/>
+    <col width="17" customWidth="1" min="22" max="22"/>
+    <col width="17" customWidth="1" min="23" max="23"/>
+    <col width="17" customWidth="1" min="24" max="24"/>
+    <col width="17" customWidth="1" min="25" max="25"/>
+    <col width="17" customWidth="1" min="26" max="26"/>
+    <col width="18" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="18" customWidth="1" min="29" max="29"/>
+    <col width="18" customWidth="1" min="30" max="30"/>
+    <col width="18" customWidth="1" min="31" max="31"/>
+    <col width="18" customWidth="1" min="32" max="32"/>
+    <col width="18" customWidth="1" min="33" max="33"/>
+    <col width="18" customWidth="1" min="34" max="34"/>
+    <col width="18" customWidth="1" min="35" max="35"/>
+    <col width="18" customWidth="1" min="36" max="36"/>
+    <col width="18" customWidth="1" min="37" max="37"/>
+    <col width="18" customWidth="1" min="38" max="38"/>
+    <col width="18" customWidth="1" min="39" max="39"/>
+    <col width="18" customWidth="1" min="40" max="40"/>
+    <col width="18" customWidth="1" min="41" max="41"/>
+    <col width="18" customWidth="1" min="42" max="42"/>
+    <col width="18" customWidth="1" min="43" max="43"/>
+    <col width="18" customWidth="1" min="44" max="44"/>
+    <col width="18" customWidth="1" min="45" max="45"/>
+    <col width="18" customWidth="1" min="46" max="46"/>
+    <col width="18" customWidth="1" min="47" max="47"/>
+    <col width="18" customWidth="1" min="48" max="48"/>
+    <col width="18" customWidth="1" min="49" max="49"/>
+    <col width="18" customWidth="1" min="50" max="50"/>
+    <col width="18" customWidth="1" min="51" max="51"/>
+    <col width="18" customWidth="1" min="52" max="52"/>
+    <col width="18" customWidth="1" min="53" max="53"/>
+    <col width="18" customWidth="1" min="54" max="54"/>
+    <col width="18" customWidth="1" min="55" max="55"/>
+    <col width="18" customWidth="1" min="56" max="56"/>
+    <col width="18" customWidth="1" min="57" max="57"/>
+    <col width="18" customWidth="1" min="58" max="58"/>
+    <col width="18" customWidth="1" min="59" max="59"/>
+    <col width="18" customWidth="1" min="60" max="60"/>
+    <col width="18" customWidth="1" min="61" max="61"/>
+    <col width="18" customWidth="1" min="62" max="62"/>
+    <col width="18" customWidth="1" min="63" max="63"/>
+    <col width="18" customWidth="1" min="64" max="64"/>
+    <col width="18" customWidth="1" min="65" max="65"/>
+    <col width="18" customWidth="1" min="66" max="66"/>
+    <col width="18" customWidth="1" min="67" max="67"/>
+    <col width="18" customWidth="1" min="68" max="68"/>
+    <col width="18" customWidth="1" min="69" max="69"/>
+    <col width="18" customWidth="1" min="70" max="70"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>COLOR FAMILY</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ENERGY RATING CODE  (NEW LEGISLATION 2021)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IP PROTECTION RATING</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUMBER OF INPUTS</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NUMBER OF OUTPUTS</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>BATTERY CHECK FUNCTION INDICATOR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>WITH CAR ADAPTER INDICATOR</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CHARGER TYPE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ENERGY SOURCE POWERED EQUIPMENT</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>WITH CHARGING STATUS INDICATOR</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BRICK:</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>10000548</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>v0.1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Script last updated:</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2022-06-29 12:53:40</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>COLOR FAMILY</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>ENERGY RATING CODE  (NEW LEGISLATION 2021)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>IP PROTECTION RATING</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>NUMBER OF INPUTS</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>NUMBER OF OUTPUTS</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>BATTERY CHECK FUNCTION INDICATOR</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>WITH CAR ADAPTER INDICATOR</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>CHARGER TYPE</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>ENERGY SOURCE POWERED EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>WITH CHARGING STATUS INDICATOR</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>data goes here</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>recupel quantity</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>color (detail)</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>recupel weight</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>bebat quantity</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>bebat weight</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>power rating</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>length of power cord/cable</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>mains voltage</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>stibat quantity</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>stibat weight</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>battery charging time</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>kema mark indicator</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>emc mark indicator</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>vde mark indicator</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>nominal power rating</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>recupel code</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>bebat code text</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>stibat code text</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>type of electrical engine</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>type of lcd panel</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>electrical safety class</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>wecycle code</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>wecycle quantity</t>
         </is>
       </c>
-      <c r="X2" s="2" t="inlineStr">
+      <c r="X4" s="2" t="inlineStr">
         <is>
           <t>wecycle weight</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="inlineStr">
+      <c r="Y4" s="2" t="inlineStr">
         <is>
           <t>battery type</t>
         </is>
       </c>
-      <c r="Z2" s="2" t="inlineStr">
+      <c r="Z4" s="2" t="inlineStr">
         <is>
           <t>battery capacity</t>
         </is>
       </c>
-      <c r="AA2" s="2" t="n"/>
-      <c r="AB2" s="2" t="n"/>
-      <c r="AC2" s="2" t="n"/>
-      <c r="AD2" s="2" t="n"/>
-      <c r="AE2" s="2" t="n"/>
-      <c r="AF2" s="2" t="n"/>
-      <c r="AG2" s="2" t="n"/>
-      <c r="AH2" s="2" t="n"/>
-      <c r="AI2" s="2" t="n"/>
-      <c r="AJ2" s="2" t="n"/>
-      <c r="AK2" s="2" t="n"/>
-      <c r="AL2" s="2" t="n"/>
-      <c r="AM2" s="2" t="n"/>
-      <c r="AN2" s="2" t="n"/>
-      <c r="AO2" s="2" t="n"/>
-      <c r="AP2" s="2" t="n"/>
-      <c r="AQ2" s="2" t="n"/>
-      <c r="AR2" s="2" t="n"/>
-      <c r="AS2" s="2" t="n"/>
-      <c r="AT2" s="2" t="n"/>
-      <c r="AU2" s="2" t="n"/>
-      <c r="AV2" s="2" t="n"/>
-      <c r="AW2" s="2" t="n"/>
-      <c r="AX2" s="2" t="n"/>
-      <c r="AY2" s="2" t="n"/>
-      <c r="AZ2" s="2" t="n"/>
-      <c r="BA2" s="2" t="n"/>
-      <c r="BB2" s="2" t="n"/>
-      <c r="BC2" s="2" t="n"/>
-      <c r="BD2" s="2" t="n"/>
-      <c r="BE2" s="2" t="n"/>
-      <c r="BF2" s="2" t="n"/>
-      <c r="BG2" s="2" t="n"/>
-      <c r="BH2" s="2" t="n"/>
-      <c r="BI2" s="2" t="n"/>
-      <c r="BJ2" s="2" t="n"/>
-      <c r="BK2" s="2" t="n"/>
-      <c r="BL2" s="2" t="n"/>
-      <c r="BM2" s="2" t="n"/>
-      <c r="BN2" s="2" t="n"/>
-      <c r="BO2" s="2" t="n"/>
-      <c r="BP2" s="2" t="n"/>
-      <c r="BQ2" s="2" t="n"/>
-      <c r="BR2" s="2" t="n"/>
-      <c r="BS2" s="2" t="n"/>
-      <c r="BT2" s="2" t="n"/>
-      <c r="BU2" s="2" t="n"/>
-      <c r="BV2" s="2" t="n"/>
-      <c r="BW2" s="2" t="n"/>
-      <c r="BX2" s="2" t="n"/>
-      <c r="BY2" s="2" t="n"/>
-      <c r="BZ2" s="2" t="n"/>
-      <c r="CA2" s="2" t="n"/>
-      <c r="CB2" s="2" t="n"/>
-      <c r="CC2" s="2" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="2" t="n"/>
+      <c r="AD4" s="2" t="n"/>
+      <c r="AE4" s="2" t="n"/>
+      <c r="AF4" s="2" t="n"/>
+      <c r="AG4" s="2" t="n"/>
+      <c r="AH4" s="2" t="n"/>
+      <c r="AI4" s="2" t="n"/>
+      <c r="AJ4" s="2" t="n"/>
+      <c r="AK4" s="2" t="n"/>
+      <c r="AL4" s="2" t="n"/>
+      <c r="AM4" s="2" t="n"/>
+      <c r="AN4" s="2" t="n"/>
+      <c r="AO4" s="2" t="n"/>
+      <c r="AP4" s="2" t="n"/>
+      <c r="AQ4" s="2" t="n"/>
+      <c r="AR4" s="2" t="n"/>
+      <c r="AS4" s="2" t="n"/>
+      <c r="AT4" s="2" t="n"/>
+      <c r="AU4" s="2" t="n"/>
+      <c r="AV4" s="2" t="n"/>
+      <c r="AW4" s="2" t="n"/>
+      <c r="AX4" s="2" t="n"/>
+      <c r="AY4" s="2" t="n"/>
+      <c r="AZ4" s="2" t="n"/>
+      <c r="BA4" s="2" t="n"/>
+      <c r="BB4" s="2" t="n"/>
+      <c r="BC4" s="2" t="n"/>
+      <c r="BD4" s="2" t="n"/>
+      <c r="BE4" s="2" t="n"/>
+      <c r="BF4" s="2" t="n"/>
+      <c r="BG4" s="2" t="n"/>
+      <c r="BH4" s="2" t="n"/>
+      <c r="BI4" s="2" t="n"/>
+      <c r="BJ4" s="2" t="n"/>
+      <c r="BK4" s="2" t="n"/>
+      <c r="BL4" s="2" t="n"/>
+      <c r="BM4" s="2" t="n"/>
+      <c r="BN4" s="2" t="n"/>
+      <c r="BO4" s="2" t="n"/>
+      <c r="BP4" s="2" t="n"/>
+      <c r="BQ4" s="2" t="n"/>
+      <c r="BR4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>More data goes here</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
